--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース一覧_A1_プロジェクト管理システム.xlsx
@@ -349,10 +349,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>随時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -409,6 +405,13 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>ザンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1547,6 +1550,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1565,15 +1685,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1601,114 +1712,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1736,6 +1739,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1745,104 +1844,8 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -3265,56 +3268,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="s">
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="129" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="108" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="99">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="138">
         <v>43578</v>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
@@ -3322,53 +3325,53 @@
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="129" t="s">
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="102" t="str">
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="141" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="99" t="str">
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="138" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
@@ -3376,45 +3379,45 @@
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="101"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -3451,114 +3454,114 @@
       <c r="A7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="120" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="120" t="s">
+      <c r="E7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="120" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="120" t="s">
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="120" t="s">
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="121"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="106"/>
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84">
         <v>1</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125">
+      <c r="C8" s="112"/>
+      <c r="D8" s="113">
         <v>43578</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="123" t="s">
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="108" t="s">
+      <c r="H8" s="116"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="111" t="s">
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="108" t="s">
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="110"/>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="146"/>
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="85"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="93"/>
       <c r="K9" s="94"/>
       <c r="L9" s="94"/>
@@ -3589,14 +3592,14 @@
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="85"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="93"/>
       <c r="K10" s="94"/>
       <c r="L10" s="94"/>
@@ -3626,14 +3629,14 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="85"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="93"/>
       <c r="K11" s="94"/>
       <c r="L11" s="94"/>
@@ -3663,14 +3666,14 @@
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="85"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="93"/>
       <c r="K12" s="94"/>
       <c r="L12" s="94"/>
@@ -3700,14 +3703,14 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="85"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="93"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
@@ -3737,14 +3740,14 @@
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="85"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="93"/>
       <c r="K14" s="94"/>
       <c r="L14" s="94"/>
@@ -3774,14 +3777,14 @@
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="85"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="100"/>
       <c r="J15" s="93"/>
       <c r="K15" s="94"/>
       <c r="L15" s="94"/>
@@ -3811,14 +3814,14 @@
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="85"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="93"/>
       <c r="K16" s="94"/>
       <c r="L16" s="94"/>
@@ -3848,14 +3851,14 @@
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="85"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="93"/>
       <c r="K17" s="94"/>
       <c r="L17" s="94"/>
@@ -3885,14 +3888,14 @@
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="85"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="100"/>
       <c r="J18" s="93"/>
       <c r="K18" s="94"/>
       <c r="L18" s="94"/>
@@ -3922,14 +3925,14 @@
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="85"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="100"/>
       <c r="J19" s="93"/>
       <c r="K19" s="94"/>
       <c r="L19" s="94"/>
@@ -3959,14 +3962,14 @@
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="85"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="93"/>
       <c r="K20" s="94"/>
       <c r="L20" s="94"/>
@@ -3996,14 +3999,14 @@
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="85"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="93"/>
       <c r="K21" s="94"/>
       <c r="L21" s="94"/>
@@ -4033,14 +4036,14 @@
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="85"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="93"/>
       <c r="K22" s="94"/>
       <c r="L22" s="94"/>
@@ -4070,14 +4073,14 @@
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="85"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="100"/>
       <c r="J23" s="93"/>
       <c r="K23" s="94"/>
       <c r="L23" s="94"/>
@@ -4107,14 +4110,14 @@
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="85"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="100"/>
       <c r="J24" s="93"/>
       <c r="K24" s="94"/>
       <c r="L24" s="94"/>
@@ -4144,14 +4147,14 @@
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="85"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="100"/>
       <c r="J25" s="93"/>
       <c r="K25" s="94"/>
       <c r="L25" s="94"/>
@@ -4181,14 +4184,14 @@
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="85"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="100"/>
       <c r="J26" s="93"/>
       <c r="K26" s="94"/>
       <c r="L26" s="94"/>
@@ -4218,14 +4221,14 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="85"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="100"/>
       <c r="J27" s="93"/>
       <c r="K27" s="94"/>
       <c r="L27" s="94"/>
@@ -4255,14 +4258,14 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="85"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="100"/>
       <c r="J28" s="93"/>
       <c r="K28" s="94"/>
       <c r="L28" s="94"/>
@@ -4292,14 +4295,14 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="85"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="119"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="93"/>
       <c r="K29" s="94"/>
       <c r="L29" s="94"/>
@@ -4329,14 +4332,14 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="85"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="93"/>
       <c r="K30" s="94"/>
       <c r="L30" s="94"/>
@@ -4366,14 +4369,14 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="85"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="93"/>
       <c r="K31" s="94"/>
       <c r="L31" s="94"/>
@@ -4404,14 +4407,14 @@
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="85"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="93"/>
       <c r="K32" s="94"/>
       <c r="L32" s="94"/>
@@ -4442,14 +4445,14 @@
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="85"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="100"/>
       <c r="J33" s="93"/>
       <c r="K33" s="94"/>
       <c r="L33" s="94"/>
@@ -4670,6 +4673,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="J27:P27"/>
     <mergeCell ref="Q27:AE27"/>
     <mergeCell ref="AF27:AI27"/>
@@ -4694,161 +4852,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5005,31 +5008,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
       <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース一覧</v>
@@ -5041,48 +5044,48 @@
       <c r="X1" s="154"/>
       <c r="Y1" s="154"/>
       <c r="Z1" s="155"/>
-      <c r="AA1" s="129" t="s">
+      <c r="AA1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="99">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="138">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
       <c r="S2" s="156"/>
       <c r="T2" s="157"/>
       <c r="U2" s="157"/>
@@ -5091,48 +5094,48 @@
       <c r="X2" s="157"/>
       <c r="Y2" s="157"/>
       <c r="Z2" s="158"/>
-      <c r="AA2" s="129" t="s">
+      <c r="AA2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="99" t="str">
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
       <c r="S3" s="159"/>
       <c r="T3" s="160"/>
       <c r="U3" s="160"/>
@@ -5141,21 +5144,21 @@
       <c r="X3" s="160"/>
       <c r="Y3" s="160"/>
       <c r="Z3" s="161"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105" t="str">
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="99" t="str">
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="101"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
     </row>
     <row r="4" spans="1:35" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="41"/>
@@ -6615,12 +6618,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6632,6 +6629,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6665,31 +6668,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
       <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース一覧</v>
@@ -6701,52 +6704,52 @@
       <c r="X1" s="154"/>
       <c r="Y1" s="154"/>
       <c r="Z1" s="155"/>
-      <c r="AA1" s="129" t="s">
+      <c r="AA1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="194">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="196"/>
       <c r="AJ1" s="33"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
       <c r="AO1" s="40"/>
     </row>
     <row r="2" spans="1:62" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
       <c r="S2" s="156"/>
       <c r="T2" s="157"/>
       <c r="U2" s="157"/>
@@ -6755,52 +6758,52 @@
       <c r="X2" s="157"/>
       <c r="Y2" s="157"/>
       <c r="Z2" s="158"/>
-      <c r="AA2" s="129" t="s">
+      <c r="AA2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="162" t="str">
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="196"/>
       <c r="AJ2" s="33"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AO2" s="40"/>
     </row>
     <row r="3" spans="1:62" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
       <c r="S3" s="159"/>
       <c r="T3" s="160"/>
       <c r="U3" s="160"/>
@@ -6809,21 +6812,21 @@
       <c r="X3" s="160"/>
       <c r="Y3" s="160"/>
       <c r="Z3" s="161"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105" t="str">
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="162" t="str">
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="196"/>
       <c r="AJ3" s="33"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -6857,258 +6860,290 @@
       <c r="BJ7" s="25"/>
     </row>
     <row r="8" spans="1:62" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="172" t="s">
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="190" t="s">
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="191"/>
-      <c r="O8" s="184" t="s">
+      <c r="N8" s="173"/>
+      <c r="O8" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="170" t="s">
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="170"/>
-      <c r="V8" s="190" t="s">
+      <c r="U8" s="164"/>
+      <c r="V8" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="194"/>
-      <c r="X8" s="194"/>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="170" t="s">
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="184" t="s">
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="186"/>
-      <c r="AE8" s="181" t="s">
+      <c r="AC8" s="166"/>
+      <c r="AD8" s="167"/>
+      <c r="AE8" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="AF8" s="182"/>
-      <c r="AG8" s="182"/>
-      <c r="AH8" s="182"/>
-      <c r="AI8" s="182"/>
-      <c r="AJ8" s="182"/>
-      <c r="AK8" s="182"/>
-      <c r="AL8" s="182"/>
-      <c r="AM8" s="183"/>
-      <c r="AN8" s="170" t="s">
+      <c r="AF8" s="192"/>
+      <c r="AG8" s="192"/>
+      <c r="AH8" s="192"/>
+      <c r="AI8" s="192"/>
+      <c r="AJ8" s="192"/>
+      <c r="AK8" s="192"/>
+      <c r="AL8" s="192"/>
+      <c r="AM8" s="193"/>
+      <c r="AN8" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="AO8" s="170"/>
-      <c r="AP8" s="170"/>
-      <c r="AQ8" s="170"/>
-      <c r="AR8" s="170"/>
-      <c r="AS8" s="170"/>
-      <c r="AT8" s="170"/>
-      <c r="AU8" s="170" t="s">
+      <c r="AO8" s="164"/>
+      <c r="AP8" s="164"/>
+      <c r="AQ8" s="164"/>
+      <c r="AR8" s="164"/>
+      <c r="AS8" s="164"/>
+      <c r="AT8" s="164"/>
+      <c r="AU8" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="AV8" s="170"/>
-      <c r="AW8" s="170"/>
-      <c r="AX8" s="170"/>
-      <c r="AY8" s="170" t="s">
+      <c r="AV8" s="164"/>
+      <c r="AW8" s="164"/>
+      <c r="AX8" s="164"/>
+      <c r="AY8" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="AZ8" s="170"/>
-      <c r="BA8" s="170"/>
-      <c r="BB8" s="170"/>
-      <c r="BC8" s="170"/>
-      <c r="BD8" s="170"/>
-      <c r="BE8" s="170"/>
-      <c r="BF8" s="170"/>
-      <c r="BG8" s="170"/>
+      <c r="AZ8" s="164"/>
+      <c r="BA8" s="164"/>
+      <c r="BB8" s="164"/>
+      <c r="BC8" s="164"/>
+      <c r="BD8" s="164"/>
+      <c r="BE8" s="164"/>
+      <c r="BF8" s="164"/>
+      <c r="BG8" s="164"/>
       <c r="BH8" s="26"/>
     </row>
     <row r="9" spans="1:62" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="197"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="189"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="192"/>
-      <c r="W9" s="195"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="188"/>
-      <c r="AD9" s="189"/>
-      <c r="AE9" s="181" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="169"/>
+      <c r="AD9" s="170"/>
+      <c r="AE9" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="183"/>
-      <c r="AH9" s="170" t="s">
+      <c r="AF9" s="192"/>
+      <c r="AG9" s="193"/>
+      <c r="AH9" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="170"/>
-      <c r="AJ9" s="170"/>
-      <c r="AK9" s="170"/>
-      <c r="AL9" s="170"/>
-      <c r="AM9" s="170"/>
-      <c r="AN9" s="181" t="s">
+      <c r="AI9" s="164"/>
+      <c r="AJ9" s="164"/>
+      <c r="AK9" s="164"/>
+      <c r="AL9" s="164"/>
+      <c r="AM9" s="164"/>
+      <c r="AN9" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="AO9" s="182"/>
-      <c r="AP9" s="183"/>
-      <c r="AQ9" s="170" t="s">
+      <c r="AO9" s="192"/>
+      <c r="AP9" s="193"/>
+      <c r="AQ9" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="AR9" s="170"/>
-      <c r="AS9" s="170"/>
-      <c r="AT9" s="170"/>
-      <c r="AU9" s="170"/>
-      <c r="AV9" s="170"/>
-      <c r="AW9" s="170"/>
-      <c r="AX9" s="170"/>
-      <c r="AY9" s="170"/>
-      <c r="AZ9" s="170"/>
-      <c r="BA9" s="170"/>
-      <c r="BB9" s="170"/>
-      <c r="BC9" s="170"/>
-      <c r="BD9" s="170"/>
-      <c r="BE9" s="170"/>
-      <c r="BF9" s="170"/>
-      <c r="BG9" s="170"/>
+      <c r="AR9" s="164"/>
+      <c r="AS9" s="164"/>
+      <c r="AT9" s="164"/>
+      <c r="AU9" s="164"/>
+      <c r="AV9" s="164"/>
+      <c r="AW9" s="164"/>
+      <c r="AX9" s="164"/>
+      <c r="AY9" s="164"/>
+      <c r="AZ9" s="164"/>
+      <c r="BA9" s="164"/>
+      <c r="BB9" s="164"/>
+      <c r="BC9" s="164"/>
+      <c r="BD9" s="164"/>
+      <c r="BE9" s="164"/>
+      <c r="BF9" s="164"/>
+      <c r="BG9" s="164"/>
       <c r="BH9" s="26"/>
     </row>
     <row r="10" spans="1:62" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="86">
         <v>1</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="178" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="171" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="179" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="180"/>
+      <c r="O10" s="179" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="180"/>
+      <c r="T10" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="182"/>
+      <c r="V10" s="179" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="180"/>
+      <c r="Z10" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="171"/>
+      <c r="AB10" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="165" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="167"/>
-      <c r="O10" s="165" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="171" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="171"/>
-      <c r="V10" s="165" t="s">
+      <c r="AC10" s="181"/>
+      <c r="AD10" s="180"/>
+      <c r="AE10" s="183" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" s="184"/>
+      <c r="AG10" s="185"/>
+      <c r="AH10" s="179" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" s="181"/>
+      <c r="AJ10" s="181"/>
+      <c r="AK10" s="181"/>
+      <c r="AL10" s="181"/>
+      <c r="AM10" s="180"/>
+      <c r="AN10" s="186">
+        <v>3572</v>
+      </c>
+      <c r="AO10" s="187"/>
+      <c r="AP10" s="188"/>
+      <c r="AQ10" s="189">
+        <v>1000</v>
+      </c>
+      <c r="AR10" s="189"/>
+      <c r="AS10" s="189"/>
+      <c r="AT10" s="189"/>
+      <c r="AU10" s="190" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV10" s="190"/>
+      <c r="AW10" s="190"/>
+      <c r="AX10" s="190"/>
+      <c r="AY10" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="169" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" s="169"/>
-      <c r="AB10" s="165" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="173" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF10" s="174"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="165" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI10" s="166"/>
-      <c r="AJ10" s="166"/>
-      <c r="AK10" s="166"/>
-      <c r="AL10" s="166"/>
-      <c r="AM10" s="167"/>
-      <c r="AN10" s="176">
-        <v>3572</v>
-      </c>
-      <c r="AO10" s="177"/>
-      <c r="AP10" s="178"/>
-      <c r="AQ10" s="179">
-        <v>1000</v>
-      </c>
-      <c r="AR10" s="179"/>
-      <c r="AS10" s="179"/>
-      <c r="AT10" s="179"/>
-      <c r="AU10" s="180" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV10" s="180"/>
-      <c r="AW10" s="180"/>
-      <c r="AX10" s="180"/>
-      <c r="AY10" s="169" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ10" s="169"/>
-      <c r="BA10" s="169"/>
-      <c r="BB10" s="169"/>
-      <c r="BC10" s="169"/>
-      <c r="BD10" s="169"/>
-      <c r="BE10" s="169"/>
-      <c r="BF10" s="169"/>
-      <c r="BG10" s="169"/>
+      <c r="AZ10" s="171"/>
+      <c r="BA10" s="171"/>
+      <c r="BB10" s="171"/>
+      <c r="BC10" s="171"/>
+      <c r="BD10" s="171"/>
+      <c r="BE10" s="171"/>
+      <c r="BF10" s="171"/>
+      <c r="BG10" s="171"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.15">
       <c r="B13" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AY10:BG10"/>
+    <mergeCell ref="AY8:BG9"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="AQ9:AT9"/>
+    <mergeCell ref="AN8:AT8"/>
+    <mergeCell ref="AU8:AX9"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="AQ10:AT10"/>
+    <mergeCell ref="AU10:AX10"/>
+    <mergeCell ref="V8:Y9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="F8:L9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="Z8:AA9"/>
     <mergeCell ref="AB8:AD9"/>
@@ -7125,38 +7160,6 @@
     <mergeCell ref="T8:U9"/>
     <mergeCell ref="O8:S9"/>
     <mergeCell ref="M8:N9"/>
-    <mergeCell ref="V8:Y9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="AQ10:AT10"/>
-    <mergeCell ref="AU10:AX10"/>
-    <mergeCell ref="AY10:BG10"/>
-    <mergeCell ref="AY8:BG9"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="AQ9:AT9"/>
-    <mergeCell ref="AN8:AT8"/>
-    <mergeCell ref="AU8:AX9"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="F8:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
